--- a/data/trans_camb/P05A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P05A_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>18.98715054416385</v>
+        <v>18.30823469256038</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.91069313167173</v>
+        <v>10.67905974540431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-20.28938587450938</v>
+        <v>-20.51340465812204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20.31994520034328</v>
+        <v>20.60856306849487</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>24.12005321731171</v>
+        <v>24.39477469360827</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.33959446302288</v>
+        <v>-18.25213596092587</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>22.08058700673938</v>
+        <v>21.41282899189197</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>18.69926569810685</v>
+        <v>19.54100180184291</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-17.54535586568769</v>
+        <v>-18.21900203621849</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>34.63825649186077</v>
+        <v>33.67886224033587</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.34540620196634</v>
+        <v>26.10834099484264</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.591071296543751</v>
+        <v>-10.23905198336574</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36.15808595082161</v>
+        <v>36.76947641277971</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>38.97305989778819</v>
+        <v>38.83569273439571</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-8.338652788862301</v>
+        <v>-8.55616025050268</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>32.16965376248944</v>
+        <v>32.61295597881469</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>29.95288006274603</v>
+        <v>30.41405873637561</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-10.66406159411163</v>
+        <v>-10.69991360725161</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.8468755181399952</v>
+        <v>0.8065281779258128</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4825661602533535</v>
+        <v>0.4764838990107783</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9099010434333815</v>
+        <v>-0.9141092230433581</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.9993085006552689</v>
+        <v>0.9881816381738758</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.135976798677991</v>
+        <v>1.184380999209288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8602947675486229</v>
+        <v>-0.8680538526765623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.066636616159682</v>
+        <v>1.072597916211666</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.8954909001323896</v>
+        <v>0.9371546738953891</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8620217315284142</v>
+        <v>-0.8672194399065098</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.340652117169558</v>
+        <v>2.18711752998681</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.716848514812665</v>
+        <v>1.750113617933299</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.6386653252942738</v>
+        <v>-0.6494782546078051</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.878100756943872</v>
+        <v>2.772395044058981</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.841620945354978</v>
+        <v>3.061735049082016</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.6054232361167379</v>
+        <v>-0.608657993731931</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.082161525580124</v>
+        <v>2.173240732331838</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.940079266698258</v>
+        <v>1.974224784388612</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.6928677947720246</v>
+        <v>-0.6857630933778284</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9734155913119044</v>
+        <v>-0.2568040691472429</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.54483762897218</v>
+        <v>15.28711755885809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-24.17653130471883</v>
+        <v>-24.12320509240837</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2818824050595126</v>
+        <v>-0.3879938864182811</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>10.16999520529101</v>
+        <v>9.524835665960696</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-27.8283626525068</v>
+        <v>-27.75837199935384</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.634453912486477</v>
+        <v>1.424102209621932</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>14.74478491859048</v>
+        <v>14.5388661824737</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-24.619491345013</v>
+        <v>-24.40964691428953</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.24962025660412</v>
+        <v>12.43394118711383</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.68902731993808</v>
+        <v>28.69595143430035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-12.42458147811505</v>
+        <v>-11.34949242690456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.38856485958281</v>
+        <v>12.1632904323941</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>22.29849961376192</v>
+        <v>22.69606610865459</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-17.11161303865039</v>
+        <v>-18.00174515980231</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.44925067576155</v>
+        <v>10.08715441204003</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>23.15436094795</v>
+        <v>23.24312069787272</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-16.80456179595785</v>
+        <v>-16.30731791303405</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02565712745935908</v>
+        <v>-0.007509930998900928</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4330110881920044</v>
+        <v>0.4165230003362625</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6741533683244764</v>
+        <v>-0.6806994716414152</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.007096496278556317</v>
+        <v>-0.005904992483640053</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2606351682801463</v>
+        <v>0.2427751555872359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7057243560698702</v>
+        <v>-0.7016738429113909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04436365998880636</v>
+        <v>0.04019207192597636</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3979379520100035</v>
+        <v>0.3887072126190625</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6725064477610134</v>
+        <v>-0.6699832706428501</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4191669624515752</v>
+        <v>0.4181441130347794</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9487576301243636</v>
+        <v>0.9917473272727333</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4087485659101299</v>
+        <v>-0.3841965048242434</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.374210030410784</v>
+        <v>0.3741322754212512</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6802604297408125</v>
+        <v>0.6775998588322377</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5213049051291628</v>
+        <v>-0.538655704606306</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3268314494281026</v>
+        <v>0.3143331652886326</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7092275548669161</v>
+        <v>0.7258636049318715</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5163531092399636</v>
+        <v>-0.506973785877907</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>9.492085632519004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.041853697689036</v>
+        <v>2.041853697689031</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>13.77941209808709</v>
@@ -1092,7 +1092,7 @@
         <v>-0.7941823634970369</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-7.732554991937437</v>
+        <v>-7.73255499193744</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.3988653209176</v>
+        <v>16.52360744027406</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.937188556796617</v>
+        <v>2.83018866226293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.494395805626447</v>
+        <v>-4.050936416408503</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.474792039655607</v>
+        <v>6.468716952111513</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-17.19158022829833</v>
+        <v>-16.98573039833171</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-23.74802722506437</v>
+        <v>-23.68226588636939</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>13.06464224599594</v>
+        <v>13.2061893825031</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.175711044927508</v>
+        <v>-6.278731091351274</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-12.33299902872326</v>
+        <v>-12.79585602956649</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>31.47006997765313</v>
+        <v>30.49605722124019</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.54245072404905</v>
+        <v>16.61056227753378</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.881806689711809</v>
+        <v>8.573820140481626</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.10555529853333</v>
+        <v>21.20420206329488</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-3.111532904057878</v>
+        <v>-2.577868322010693</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-10.82439669778394</v>
+        <v>-10.3988518202241</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>23.98692556619786</v>
+        <v>24.22438181187691</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.384862643734488</v>
+        <v>3.955872476364818</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.780897244793058</v>
+        <v>-3.048407970580553</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.4374928225392709</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.09410959529841084</v>
+        <v>0.09410959529841058</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3552485524447143</v>
@@ -1197,7 +1197,7 @@
         <v>-0.02607407088702496</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2538701389814327</v>
+        <v>-0.2538701389814328</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.6324438658031358</v>
+        <v>0.6346282852850047</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1194452783343429</v>
+        <v>0.1102230095042123</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1813394989856346</v>
+        <v>-0.1659189921708423</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1489200806549903</v>
+        <v>0.1562867485579655</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4126603985973089</v>
+        <v>-0.4088119066322679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5606086470449072</v>
+        <v>-0.5530833360055679</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4061999316414985</v>
+        <v>0.3951429291136187</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1889637260814001</v>
+        <v>-0.1879339562652664</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3725899207762521</v>
+        <v>-0.3781847342903036</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.74866245879428</v>
+        <v>1.661506995507189</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9292630217109796</v>
+        <v>0.9010114058625286</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4970804787485391</v>
+        <v>0.4714998622557069</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5993872129687321</v>
+        <v>0.6181264250508227</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.09136727399095419</v>
+        <v>-0.08114449893173466</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3122082208028839</v>
+        <v>-0.295666037421666</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8625738190278812</v>
+        <v>0.8657044878160849</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1551452670186967</v>
+        <v>0.1398542789466263</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.09689883960612769</v>
+        <v>-0.09790339091518499</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.853783398919457</v>
+        <v>-3.655506588159996</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.0843633728278</v>
+        <v>-5.147097971276483</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-17.12268316000031</v>
+        <v>-17.36813865169383</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.932040912792296</v>
+        <v>9.448972697461922</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.649169600107633</v>
+        <v>5.185983275236115</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.046501846613671</v>
+        <v>-9.605952510173241</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.986369261576098</v>
+        <v>5.612816363954564</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.145299220111975</v>
+        <v>2.123037911243857</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.72207118925196</v>
+        <v>-11.3982720058829</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.2616299043138</v>
+        <v>10.36521297689733</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.434654662337325</v>
+        <v>8.881002901412181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.878024403807919</v>
+        <v>-3.067799709134102</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.12272715356751</v>
+        <v>22.35418573307352</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.10473117890772</v>
+        <v>18.33102768775567</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.586655996912487</v>
+        <v>2.490264374680597</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>14.79825433000134</v>
+        <v>14.95109434902165</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.24657172245011</v>
+        <v>10.99159805899605</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.272725118017447</v>
+        <v>-2.368172993330858</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.06194139637000549</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3562017775309993</v>
+        <v>-0.3562017775309994</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.663240362766825</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1145737265723021</v>
+        <v>-0.1090550442619727</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1598412023919382</v>
+        <v>-0.1575134948877188</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5272772756230985</v>
+        <v>-0.5212841455544091</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.364714493254801</v>
+        <v>0.3383914718277182</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1442744419606432</v>
+        <v>0.1724253443957091</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3325586181504903</v>
+        <v>-0.3425627566356545</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1681813705748008</v>
+        <v>0.1873443704360432</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05005750531100474</v>
+        <v>0.07400000071383681</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3958235703100119</v>
+        <v>-0.391020441480659</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4019893389150961</v>
+        <v>0.4185423727259469</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3208318880394876</v>
+        <v>0.3368639287880876</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1096032103987418</v>
+        <v>-0.1042244291535015</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.09278717543617</v>
+        <v>1.040865319281166</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7897150472273525</v>
+        <v>0.8508912206602292</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1167257788091821</v>
+        <v>0.1154892907115829</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6019739068226855</v>
+        <v>0.5988035301752126</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4581871394664416</v>
+        <v>0.4477739071266958</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.0876138119285621</v>
+        <v>-0.09395275396636493</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-22.12909797853811</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-41.86983078740898</v>
+        <v>-41.86983078740899</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>13.47703324772913</v>
+        <v>12.78326370681594</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-32.60272041892934</v>
+        <v>-33.10821482298153</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-49.04443577129473</v>
+        <v>-49.11623275270329</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.579399026457367</v>
+        <v>7.744869608610316</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-28.33418499181176</v>
+        <v>-29.47090594831797</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-49.16693333654539</v>
+        <v>-49.82310296943511</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>13.04156903304741</v>
+        <v>13.48187057416764</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-28.98487924051121</v>
+        <v>-28.45945227790319</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-46.85373567830503</v>
+        <v>-46.74305927365593</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>32.67996737652643</v>
+        <v>30.97163257521921</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-14.33481792430222</v>
+        <v>-14.96693009901816</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-33.68963871867903</v>
+        <v>-33.67595061129165</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26.63330226756171</v>
+        <v>26.91663705328409</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-10.88823327542377</v>
+        <v>-11.15004478169927</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-35.37536651348748</v>
+        <v>-35.42381639687532</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>26.41507968836618</v>
+        <v>26.97732348755552</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-15.88783334479692</v>
+        <v>-15.59578298654982</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-36.5114974538156</v>
+        <v>-36.61531324535733</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.4840364623325333</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.9158314899439058</v>
+        <v>-0.915831489943906</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.260686295922034</v>
+        <v>0.2441328230246213</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6422952942304759</v>
+        <v>-0.6406609009443434</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.9295390779414209</v>
+        <v>-0.931187572015076</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1535890565990368</v>
+        <v>0.1594690737100141</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5866241081636802</v>
+        <v>-0.5988146158735277</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.9776205573470959</v>
+        <v>-0.978210432681864</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2598072222862016</v>
+        <v>0.2742950458586095</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5888078893866593</v>
+        <v>-0.5744590970171205</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.9477818934914569</v>
+        <v>-0.9447092816678624</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7936680425963688</v>
+        <v>0.7456934087219278</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3605699714731287</v>
+        <v>-0.3619064481968694</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.7748986242753522</v>
+        <v>-0.7836397456769162</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6949956537219639</v>
+        <v>0.7022833845210388</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2688535214852129</v>
+        <v>-0.2768970781970262</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.9193258191632049</v>
+        <v>-0.9158814271153835</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6343032676470955</v>
+        <v>0.636943215174811</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.381825898245851</v>
+        <v>-0.3618587998871522</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.8705830706820701</v>
+        <v>-0.8720183858672307</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.313552833143097</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-7.479790006640913</v>
+        <v>-7.479790006640921</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>24.57995788229519</v>
@@ -1734,7 +1734,7 @@
         <v>13.38848153949123</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.86391599195179</v>
+        <v>-2.863915991951796</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>26.08186229293702</v>
+        <v>26.06795022805653</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>14.86190879189441</v>
+        <v>15.1635637788081</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.420496680577147</v>
+        <v>-4.19820702380622</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7.562161738146117</v>
+        <v>6.88813066205647</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.693567322726003</v>
+        <v>-3.00593670149597</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-13.56363023844108</v>
+        <v>-13.85720831843101</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>18.64319067250963</v>
+        <v>19.45660776197674</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>7.956255920661244</v>
+        <v>8.324927426496293</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.549188855771558</v>
+        <v>-7.310235592904646</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>41.52533702791216</v>
+        <v>41.47293976836248</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>30.05239457119758</v>
+        <v>30.48720237142658</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.119119150665773</v>
+        <v>8.231449282404906</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23.11096792677017</v>
+        <v>22.95729209921065</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.91491148075182</v>
+        <v>12.42008391376334</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.3495154878419535</v>
+        <v>-1.026591183828058</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>29.86102395293953</v>
+        <v>30.02701798858471</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>18.74617722926797</v>
+        <v>18.73788101586344</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.016211473367396</v>
+        <v>1.787023259055814</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1520711693082691</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2636945590999918</v>
+        <v>-0.2636945590999921</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.083852808707712</v>
@@ -1839,7 +1839,7 @@
         <v>0.5903648570269203</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1262843250848579</v>
+        <v>-0.1262843250848581</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1.214974568975994</v>
+        <v>1.307660260036996</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.711076074630198</v>
+        <v>0.7480569023679793</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2223898221493659</v>
+        <v>-0.2126885918330225</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2375307903886391</v>
+        <v>0.216023298307265</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1225003063960154</v>
+        <v>-0.09271135038429926</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4221181708173195</v>
+        <v>-0.4312738983534453</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7274798105822423</v>
+        <v>0.7767554172208091</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.3074922413837728</v>
+        <v>0.3196151368457296</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2985616426460526</v>
+        <v>-0.2892059034808249</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.035351660745261</v>
+        <v>3.103480894887637</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.214096872564196</v>
+        <v>2.259425624406363</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6120396809419859</v>
+        <v>0.5970689935713782</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.9824978702712178</v>
+        <v>0.933514928549839</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.49300780195161</v>
+        <v>0.506403001030069</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.008562700156449395</v>
+        <v>-0.03725815267897074</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.495459478702678</v>
+        <v>1.540297631647394</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.9529924516956406</v>
+        <v>0.9195058725187523</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.09767304857569192</v>
+        <v>0.09010122311858186</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>13.28171648522615</v>
+        <v>12.89046598824205</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>9.915884209505613</v>
+        <v>10.29408835657514</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.67331920705049</v>
+        <v>3.19663218836156</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.305775667885626</v>
+        <v>1.502954329363988</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.591581225403168</v>
+        <v>2.325407122683674</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.085769547619268</v>
+        <v>-2.611934699022407</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>8.845761931863747</v>
+        <v>9.067085539440255</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>7.399259110216764</v>
+        <v>7.639363620555792</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.456407050485861</v>
+        <v>1.477314461010897</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>23.97852908089983</v>
+        <v>23.71219952291422</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>20.45782952874514</v>
+        <v>20.3638694844792</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14.42650408166246</v>
+        <v>13.84855310897003</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.37567465182012</v>
+        <v>12.62850767361514</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.3806463474101</v>
+        <v>13.08908106260357</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.66817971925084</v>
+        <v>7.079505711156392</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>16.54501758277854</v>
+        <v>16.52668982792128</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>15.21889138568057</v>
+        <v>15.10901482944088</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>8.904009214666083</v>
+        <v>8.906197110860745</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.4918472275900018</v>
+        <v>0.4468265164622169</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.3767245449946385</v>
+        <v>0.3719111734682692</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1355367876339624</v>
+        <v>0.1115233287839059</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.03519518312065494</v>
+        <v>0.04307990736645255</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.06668476104313358</v>
+        <v>0.06096196535175231</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.08524243946163042</v>
+        <v>-0.07401101793867636</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2929375758626674</v>
+        <v>0.30399391712773</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2429411933214852</v>
+        <v>0.2552606549902285</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.05124347037108527</v>
+        <v>0.05124518904398936</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.118165735300522</v>
+        <v>1.098544988986997</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9710690079043249</v>
+        <v>0.9462434017513961</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6947033663867065</v>
+        <v>0.6380961219609425</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4051295974457285</v>
+        <v>0.4265457817764302</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.439070112845822</v>
+        <v>0.4345290725106087</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2129449996391261</v>
+        <v>0.2340372853185635</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6235430572875237</v>
+        <v>0.6191908361615517</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5652757712107058</v>
+        <v>0.5677293331653614</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3347509060366792</v>
+        <v>0.333085999654765</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-18.94346588369995</v>
+        <v>-18.82166045529112</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-17.06953394462539</v>
+        <v>-16.16038934830482</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-27.9179475288027</v>
+        <v>-28.08794581417412</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-23.5701520670801</v>
+        <v>-23.49608037578804</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-19.92046020552906</v>
+        <v>-19.43989671746513</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-25.75644727356763</v>
+        <v>-25.37248572087424</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-20.2939391135637</v>
+        <v>-20.16284332994324</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-16.78091770161965</v>
+        <v>-17.02319928430952</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-25.15026589736085</v>
+        <v>-25.27493268817064</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-9.316604292149147</v>
+        <v>-9.218022946714738</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-6.764055741085484</v>
+        <v>-5.930568389858647</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-18.8094668258898</v>
+        <v>-19.1104671587179</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-13.88247594499116</v>
+        <v>-13.88346444695908</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-10.25430957897877</v>
+        <v>-9.908555584034273</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-16.32716337349302</v>
+        <v>-16.36931220184688</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-13.4394376960767</v>
+        <v>-13.13625502010999</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-9.900849087595857</v>
+        <v>-9.867478363525176</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-18.84280745346105</v>
+        <v>-19.14129233999446</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4533479115033281</v>
+        <v>-0.4498587851527657</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3928051216517896</v>
+        <v>-0.3902304509697652</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6635744329803283</v>
+        <v>-0.6656719722419423</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.532665755168478</v>
+        <v>-0.5270277732452304</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4398752432911293</v>
+        <v>-0.4330850626440577</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.56774325151483</v>
+        <v>-0.5702936269489614</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4726727279763681</v>
+        <v>-0.4719453421605673</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3886833717460405</v>
+        <v>-0.3986928826845504</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5912438945960011</v>
+        <v>-0.5901684263393375</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2551378925222195</v>
+        <v>-0.2509688330030997</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1751293891480535</v>
+        <v>-0.1642194970960572</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.506936176172047</v>
+        <v>-0.5174212999443784</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.3520617567738983</v>
+        <v>-0.3513548762157029</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.254615546001118</v>
+        <v>-0.2485592376067577</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.4072170927970082</v>
+        <v>-0.4147610050974902</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3395053581290389</v>
+        <v>-0.3376393370668687</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.250795335806454</v>
+        <v>-0.2524270970328413</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.4841405114924857</v>
+        <v>-0.4859832106900458</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>4.298770104895122</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-12.51130377345543</v>
+        <v>-12.51130377345544</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>7.784346411859986</v>
+        <v>7.573400700480382</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>4.014220630596265</v>
+        <v>4.222729681545326</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-13.09826934901841</v>
+        <v>-13.12443426127454</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.354874151307694</v>
+        <v>3.173160606180204</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.3017469340526309</v>
+        <v>-0.07249761010339766</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-15.98563953498972</v>
+        <v>-16.07411871122732</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>6.074954800726931</v>
+        <v>6.195578901514671</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>2.590954753557219</v>
+        <v>2.837039606178995</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-14.02902608983634</v>
+        <v>-13.93469473017022</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>12.31918439134178</v>
+        <v>12.74531575756656</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>8.63967440592722</v>
+        <v>8.773158022631906</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-8.839534647218841</v>
+        <v>-8.819535264662926</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7.93394416642422</v>
+        <v>7.938847417487251</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.292633521482035</v>
+        <v>4.622141625739746</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-11.95034972042538</v>
+        <v>-11.95610828186227</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>9.385051663557963</v>
+        <v>9.535992061669198</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>5.930169793009654</v>
+        <v>5.952159896513594</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-11.03382585494427</v>
+        <v>-10.97784448267712</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.1343219251067632</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.3909356321549661</v>
+        <v>-0.3909356321549662</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2544508471915359</v>
+        <v>0.2468681194214348</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1301795588955869</v>
+        <v>0.1399883107949526</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.4300323023690799</v>
+        <v>-0.429638062954715</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.09323942275602694</v>
+        <v>0.08751968095897068</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.008666010978989162</v>
+        <v>-0.002037799870639854</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.4487550950486087</v>
+        <v>-0.4505851530491828</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1847337481093306</v>
+        <v>0.188319763483326</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.07775994855128428</v>
+        <v>0.08625492402985148</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.426084375304332</v>
+        <v>-0.42591277488119</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4369784311161529</v>
+        <v>0.4474182995054338</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3036679725378735</v>
+        <v>0.3164312236050837</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.309418563505565</v>
+        <v>-0.3094823103502655</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2342345937236198</v>
+        <v>0.2373746967961438</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1290923267689914</v>
+        <v>0.1390633055792126</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.3585726604746498</v>
+        <v>-0.3581705948788006</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.3002850902462263</v>
+        <v>0.3058508440817138</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1892239603297313</v>
+        <v>0.1916889929604901</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.3524147329472567</v>
+        <v>-0.3528965690828257</v>
       </c>
     </row>
     <row r="58">
